--- a/sputnik/personal/cel/cel195.xlsx
+++ b/sputnik/personal/cel/cel195.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -174,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -215,6 +215,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -525,7 +526,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -649,12 +650,28 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="A11" s="18">
+        <v>43952</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="13">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="A12" s="18">
+        <v>44057</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13">
+        <v>1000</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" s="14"/>

--- a/sputnik/personal/cel/cel195.xlsx
+++ b/sputnik/personal/cel/cel195.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Оплачено</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Оплачен целевой взнос на приобретение мини трактора</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на ремонт дорог на территории СНТ_2021</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
   </si>
 </sst>
 </file>
@@ -174,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -205,7 +211,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -523,10 +528,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A13" sqref="A13:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -554,7 +559,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>43466</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -566,7 +571,7 @@
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>43466</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -578,7 +583,7 @@
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>43586</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -590,7 +595,7 @@
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>43586</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -602,7 +607,7 @@
       <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <v>43728</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -614,7 +619,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="16">
         <v>43728</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -626,7 +631,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="A9" s="16">
         <v>43728</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -638,7 +643,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+      <c r="A10" s="16">
         <v>43728</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -650,7 +655,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
+      <c r="A11" s="17">
         <v>43952</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -662,7 +667,7 @@
       <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="17">
         <v>44057</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -674,20 +679,64 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="A13" s="17">
+        <v>44317</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="13">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
+      <c r="A14" s="17">
+        <v>44317</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="13">
+        <v>170</v>
+      </c>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/cel/cel195.xlsx
+++ b/sputnik/personal/cel/cel195.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Оплачено</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>Начислен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на ремонт дорог на территории СНТ_2021</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
   </si>
 </sst>
 </file>
@@ -531,7 +537,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:C14"/>
+      <selection activeCell="A15" sqref="A15:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -703,16 +709,28 @@
       <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="17">
+        <v>44467</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="D15" s="13">
+        <v>1000</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="17">
+        <v>44467</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+      <c r="D16" s="13">
+        <v>170</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
